--- a/data/trans_dic/Q20C_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q20C_R2-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.234609418228868</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1861301216686153</v>
+        <v>0.1861301216686154</v>
       </c>
     </row>
     <row r="5">
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1317099016728596</v>
+        <v>0.1343847055605952</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06300456081949203</v>
+        <v>0.06368666782463826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03480384305605009</v>
+        <v>0.03113278004100263</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07901742002693846</v>
+        <v>0.07949845609896727</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0</v>
+        <v>0.06667508689563169</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08206884902361408</v>
+        <v>0.07189338764129048</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05819434442090657</v>
+        <v>0.05679697793958435</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09204601418441415</v>
+        <v>0.08758199652504325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09666141186213496</v>
+        <v>0.09749479102802866</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08429805658046478</v>
+        <v>0.08971338469503484</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6751882902188585</v>
+        <v>0.69713794100557</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6253340938843904</v>
+        <v>0.6075949974116557</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5201774537192019</v>
+        <v>0.4771097267787421</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3565873143761743</v>
+        <v>0.3329769731089378</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5430090100937883</v>
+        <v>0.5822767159662731</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.330090000776911</v>
+        <v>0.3260157510785045</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4994960483078213</v>
+        <v>0.5319900796075949</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4836104454981097</v>
+        <v>0.4758804539851407</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4528580275327078</v>
+        <v>0.4542391422128926</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3901335065553624</v>
+        <v>0.3703480535819622</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4212580703031207</v>
+        <v>0.4190496737886923</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3350075931716697</v>
+        <v>0.340469631178391</v>
       </c>
     </row>
     <row r="7">
@@ -845,22 +845,22 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.1347979660988358</v>
+        <v>0.1389668712666661</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1815574772393624</v>
+        <v>0.1832283318306537</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1767866384739317</v>
+        <v>0.1967117875035864</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07935691246035376</v>
+        <v>0.0753382718202894</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -869,13 +869,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2139080198297312</v>
+        <v>0.2147480095334154</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08826826635292523</v>
+        <v>0.08561794068667969</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1232985479057092</v>
+        <v>0.09891343199563479</v>
       </c>
     </row>
     <row r="9">
@@ -887,37 +887,37 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.6752483515983387</v>
+        <v>0.643653314152986</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5472302907519255</v>
+        <v>0.4780842586601919</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7295069197853106</v>
+        <v>0.7241383608191213</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5513857020003508</v>
+        <v>0.4470311210489048</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5990791592608172</v>
+        <v>0.5991274659933624</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6311659841106224</v>
+        <v>0.5898588178351653</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1673135894730724</v>
+        <v>0.2181387142183397</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3111081983005769</v>
+        <v>0.2543055192854841</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.559893736386192</v>
+        <v>0.5376306171404458</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4722477111117494</v>
+        <v>0.4654436203566631</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4703232973561269</v>
+        <v>0.4757619664244506</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.2313531278159685</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3567145079529166</v>
+        <v>0.3567145079529168</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2916152542507692</v>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1177751997547502</v>
+        <v>0.1176406668866317</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
@@ -986,28 +986,28 @@
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05960859060480088</v>
+        <v>0.05985872466926905</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1176275113062145</v>
+        <v>0.1090151303489619</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06761202723184512</v>
+        <v>0.06737717614536505</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1410908512708683</v>
+        <v>0.1247442633152215</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1401813959109694</v>
+        <v>0.1447067628686487</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06165079029667499</v>
+        <v>0.06192784295563247</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07940633934980082</v>
+        <v>0.0433301445632082</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09078889112696278</v>
+        <v>0.09476599015466873</v>
       </c>
     </row>
     <row r="12">
@@ -1018,38 +1018,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7992914271250775</v>
+        <v>0.7903799609031653</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.6744514226864077</v>
+        <v>0.5930284550260683</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4122926594575007</v>
+        <v>0.4340036233598314</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4693961573495109</v>
+        <v>0.4766534701172343</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5865025502892935</v>
+        <v>0.5777102025624873</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.511081005069731</v>
+        <v>0.5385626587720902</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6248377445194288</v>
+        <v>0.6568997211249245</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5037505522196442</v>
+        <v>0.5084795284241601</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3425553160129831</v>
+        <v>0.3534194199947455</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4852307193917694</v>
+        <v>0.4550332210818745</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4038496641749519</v>
+        <v>0.4106294205335632</v>
       </c>
     </row>
     <row r="13">
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1433940056494706</v>
+        <v>0.1429222847975947</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07079247817331276</v>
+        <v>0.06914105681225186</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2000034675284832</v>
+        <v>0.1910086706195311</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1030110777742779</v>
+        <v>0.1037527035228546</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1019419677418133</v>
+        <v>0.1261297109970003</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.091339264338911</v>
+        <v>0.0869409821476336</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07690515887135353</v>
+        <v>0.07885988154005329</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06365651756340458</v>
+        <v>0.08329699376334118</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1386164273426037</v>
+        <v>0.1399913084969064</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1800252168350081</v>
+        <v>0.1818814652880943</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.648911307465292</v>
+        <v>0.6490557639586524</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.271288986425188</v>
+        <v>0.2706043359563532</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5841306941690125</v>
+        <v>0.5718815907418182</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6102328386034845</v>
+        <v>0.6024182368938761</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3683484387164139</v>
+        <v>0.4191474730054153</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4979901011865365</v>
+        <v>0.5191424722501147</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5159805304355909</v>
+        <v>0.5164145626265892</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4056571275047507</v>
+        <v>0.4305805796251532</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4109441993340041</v>
+        <v>0.419977563787258</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3263626890738892</v>
+        <v>0.3557521540801145</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4532321592207746</v>
+        <v>0.4689677407327153</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4341915420713272</v>
+        <v>0.446213638603732</v>
       </c>
     </row>
     <row r="16">
@@ -1233,7 +1233,7 @@
         <v>0.2435398874559074</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2470574150554286</v>
+        <v>0.2470574150554285</v>
       </c>
     </row>
     <row r="17">
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1351803355467813</v>
+        <v>0.1375458788888443</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1037011079521781</v>
+        <v>0.1024376226002854</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1218495667186171</v>
+        <v>0.1073106239483841</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1871880929198684</v>
+        <v>0.1892262510353047</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09139629209161486</v>
+        <v>0.09425922117981216</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1800371759569567</v>
+        <v>0.1836559479770491</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1646700272429263</v>
+        <v>0.1601220683622272</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1259375241777167</v>
+        <v>0.1183727587952329</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.137384250497102</v>
+        <v>0.1382380243743739</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1717911101721128</v>
+        <v>0.1729325614287226</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1645492194268222</v>
+        <v>0.172582110948147</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1813013118799221</v>
+        <v>0.186328504813216</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4236466516371003</v>
+        <v>0.4332447562475061</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2940577750469088</v>
+        <v>0.306398945988577</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3552547090983913</v>
+        <v>0.3517759010470973</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4144071616065038</v>
+        <v>0.4151979612514347</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3034770822376806</v>
+        <v>0.3049938693188232</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3800768944500938</v>
+        <v>0.3878761890559846</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3979300091435926</v>
+        <v>0.3874785861161484</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3116889990458611</v>
+        <v>0.3009081665139041</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3194107345516055</v>
+        <v>0.3066642005008935</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3191112570429627</v>
+        <v>0.326690696293803</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3372274808387563</v>
+        <v>0.3394312086161756</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3315481902648355</v>
+        <v>0.3288637809110352</v>
       </c>
     </row>
     <row r="19">
@@ -1595,37 +1595,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1949</v>
+        <v>1988</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1100</v>
+        <v>1112</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1032</v>
+        <v>904</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3095</v>
+        <v>2945</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2931</v>
+        <v>2956</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2277</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="7">
@@ -1636,40 +1636,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3921</v>
+        <v>4049</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9251</v>
+        <v>8989</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9079</v>
+        <v>8327</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5144</v>
+        <v>4804</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6025</v>
+        <v>6461</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6215</v>
+        <v>6138</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6430</v>
+        <v>6848</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6084</v>
+        <v>5987</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7655</v>
+        <v>7678</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>13117</v>
+        <v>12452</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>12774</v>
+        <v>12707</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>9047</v>
+        <v>9195</v>
       </c>
     </row>
     <row r="8">
@@ -1773,22 +1773,22 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>2010</v>
+        <v>2072</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2612</v>
+        <v>2636</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4527</v>
+        <v>5038</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1076</v>
+        <v>1022</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>0</v>
@@ -1797,13 +1797,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8667</v>
+        <v>8701</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2193</v>
+        <v>2127</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3234</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="11">
@@ -1815,37 +1815,37 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>10069</v>
+        <v>9598</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6174</v>
+        <v>5394</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>10495</v>
+        <v>10417</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4974</v>
+        <v>4033</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>15342</v>
+        <v>15343</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8561</v>
+        <v>8001</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1981</v>
+        <v>2583</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>4928</v>
+        <v>4028</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>22686</v>
+        <v>21784</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>11734</v>
+        <v>11565</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>12335</v>
+        <v>12477</v>
       </c>
     </row>
     <row r="12">
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
@@ -1958,28 +1958,28 @@
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2036</v>
+        <v>1887</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1296</v>
+        <v>1146</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3540</v>
+        <v>3654</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1923</v>
+        <v>1049</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>2237</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="15">
@@ -1990,38 +1990,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6801</v>
+        <v>6725</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>7668</v>
+        <v>6742</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6370</v>
+        <v>6706</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7860</v>
+        <v>7982</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10151</v>
+        <v>9999</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6567</v>
+        <v>6921</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>5739</v>
+        <v>6033</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>12722</v>
+        <v>12841</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>11066</v>
+        <v>11417</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11752</v>
+        <v>11020</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>9949</v>
+        <v>10116</v>
       </c>
     </row>
     <row r="16">
@@ -2124,40 +2124,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3658</v>
+        <v>3494</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2137</v>
+        <v>2644</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1586</v>
+        <v>1509</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1871</v>
+        <v>1918</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2196</v>
+        <v>2874</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4454</v>
+        <v>4499</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>6418</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="19">
@@ -2168,40 +2168,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7902</v>
+        <v>7904</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4091</v>
+        <v>4081</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6526</v>
+        <v>6390</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>11162</v>
+        <v>11019</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4475</v>
+        <v>5093</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9670</v>
+        <v>10081</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>10816</v>
+        <v>10825</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>7042</v>
+        <v>7475</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>9997</v>
+        <v>10217</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>11259</v>
+        <v>12273</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>14565</v>
+        <v>15070</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>15480</v>
+        <v>15908</v>
       </c>
     </row>
     <row r="20">
@@ -2304,40 +2304,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4503</v>
+        <v>4582</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6199</v>
+        <v>6124</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6248</v>
+        <v>5503</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>11710</v>
+        <v>11837</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4480</v>
+        <v>4620</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>14612</v>
+        <v>14906</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9921</v>
+        <v>9647</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6418</v>
+        <v>6033</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>11310</v>
+        <v>11380</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>24213</v>
+        <v>24374</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>18352</v>
+        <v>19248</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>20581</v>
+        <v>21152</v>
       </c>
     </row>
     <row r="23">
@@ -2348,40 +2348,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14113</v>
+        <v>14432</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>17579</v>
+        <v>18317</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>18217</v>
+        <v>18038</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25923</v>
+        <v>25973</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>14874</v>
+        <v>14949</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>30848</v>
+        <v>31481</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>23974</v>
+        <v>23345</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>15885</v>
+        <v>15335</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>26295</v>
+        <v>25246</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>44976</v>
+        <v>46045</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>37610</v>
+        <v>37856</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>37637</v>
+        <v>37333</v>
       </c>
     </row>
     <row r="24">
